--- a/biology/Botanique/Angophora/Angophora.xlsx
+++ b/biology/Botanique/Angophora/Angophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Angophora comprend dix espèces d'arbres ou de buissons de la famille des Myrtaceae. Ils sont originaires de l'est de l'Australie.
 Ils sont très proches des genres Corymbia et Eucalyptus. ils s'en différencient par leurs feuilles qui sont opposées et non alternes et par l'absence d'opercule sur le fruit. Le fruit est aussi côtelé alors qu'il est lisse chez l'eucalyptus.
@@ -514,9 +526,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (30 avril 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (30 avril 2021) :
 Angophora bakeri C.C.Hall
 Angophora clelandii Maiden
 Angophora costata (Gaertn.) Hochr. ex Britten
